--- a/data/trans_camb/DC-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DC-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,13; -6,83</t>
+          <t>-13,96; -6,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -8,96</t>
+          <t>-15,95; -8,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 13,44</t>
+          <t>3,53; 13,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 0,06</t>
+          <t>-7,2; -0,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,89; -5,21</t>
+          <t>-12,78; -5,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,71; 28,36</t>
+          <t>20,72; 28,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -3,85</t>
+          <t>-9,02; -3,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,48; -8,05</t>
+          <t>-13,38; -8,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,37; 21,55</t>
+          <t>15,44; 21,32</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,52; -27,39</t>
+          <t>-49,04; -27,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,35; -34,56</t>
+          <t>-55,89; -34,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,14; 52,71</t>
+          <t>12,59; 51,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 0,02</t>
+          <t>-22,34; -1,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,42; -17,77</t>
+          <t>-39,67; -18,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,41; 99,17</t>
+          <t>63,2; 98,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,83; -14,0</t>
+          <t>-29,72; -13,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,45; -29,1</t>
+          <t>-44,54; -28,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,11; 77,5</t>
+          <t>50,52; 76,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; -2,25</t>
+          <t>-6,52; -2,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; -3,25</t>
+          <t>-7,16; -3,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,36</t>
+          <t>5,12; 10,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; -0,49</t>
+          <t>-5,99; -0,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; -3,76</t>
+          <t>-8,41; -3,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 30,16</t>
+          <t>14,05; 28,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -2,28</t>
+          <t>-5,27; -2,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -3,89</t>
+          <t>-6,97; -3,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 19,86</t>
+          <t>10,84; 20,3</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,97; -20,52</t>
+          <t>-48,25; -20,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,42; -29,36</t>
+          <t>-54,4; -28,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,38; 94,52</t>
+          <t>39,07; 94,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,64; -2,43</t>
+          <t>-28,11; -1,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,01; -20,94</t>
+          <t>-40,26; -19,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,94; 162,44</t>
+          <t>71,51; 156,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,53; -15,02</t>
+          <t>-32,26; -14,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,8; -26,8</t>
+          <t>-42,92; -26,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,9; 128,44</t>
+          <t>67,25; 133,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -2,6</t>
+          <t>-9,13; -2,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 0,39</t>
+          <t>-6,89; 0,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 9,57</t>
+          <t>2,03; 9,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 2,38</t>
+          <t>-7,73; 2,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -2,6</t>
+          <t>-11,53; -2,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 20,58</t>
+          <t>10,99; 20,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -1,32</t>
+          <t>-6,87; -0,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -1,76</t>
+          <t>-7,93; -2,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 14,56</t>
+          <t>8,11; 14,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,9; -25,92</t>
+          <t>-70,13; -17,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,14; 5,31</t>
+          <t>-53,57; 4,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,11; 107,59</t>
+          <t>13,64; 112,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 17,14</t>
+          <t>-39,38; 14,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,63; -17,92</t>
+          <t>-56,51; -16,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,86; 139,7</t>
+          <t>50,51; 139,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,79; -10,36</t>
+          <t>-45,35; -7,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,16; -15,03</t>
+          <t>-49,8; -15,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,33; 117,16</t>
+          <t>51,46; 116,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,36; -5,01</t>
+          <t>-8,21; -5,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -6,31</t>
+          <t>-9,43; -6,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,27</t>
+          <t>3,15; 7,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -1,24</t>
+          <t>-5,36; -1,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -6,32</t>
+          <t>-10,17; -6,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,5; 23,38</t>
+          <t>14,6; 23,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; -3,69</t>
+          <t>-6,24; -3,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -6,68</t>
+          <t>-9,34; -6,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,82; 15,39</t>
+          <t>9,95; 15,61</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,75; -32,28</t>
+          <t>-47,57; -32,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,64; -39,88</t>
+          <t>-54,25; -39,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,57; 46,4</t>
+          <t>18,54; 46,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,74; -5,4</t>
+          <t>-21,9; -5,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,2; -28,46</t>
+          <t>-41,68; -27,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>59,45; 101,01</t>
+          <t>60,18; 102,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,99; -19,1</t>
+          <t>-30,16; -19,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,99; -34,78</t>
+          <t>-45,22; -35,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>47,16; 75,63</t>
+          <t>47,92; 77,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DC-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,96; -6,83</t>
+          <t>-13,83; -6,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,95; -8,5</t>
+          <t>-16,22; -8,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 13,26</t>
+          <t>3,88; 13,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,2; -0,28</t>
+          <t>-7,12; 0,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -5,29</t>
+          <t>-13,0; -5,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,72; 28,36</t>
+          <t>20,3; 28,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,02; -3,91</t>
+          <t>-8,99; -3,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,38; -8,01</t>
+          <t>-13,36; -7,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,44; 21,32</t>
+          <t>15,32; 21,45</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,04; -27,02</t>
+          <t>-48,8; -26,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,89; -34,62</t>
+          <t>-57,24; -33,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 51,65</t>
+          <t>13,92; 54,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,34; -1,34</t>
+          <t>-22,2; 0,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,67; -18,47</t>
+          <t>-40,35; -19,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,2; 98,73</t>
+          <t>62,91; 99,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,72; -13,61</t>
+          <t>-29,74; -13,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,54; -28,91</t>
+          <t>-44,35; -28,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,52; 76,31</t>
+          <t>50,3; 77,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; -2,3</t>
+          <t>-6,54; -2,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -3,09</t>
+          <t>-7,15; -3,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,27</t>
+          <t>5,29; 10,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; -0,38</t>
+          <t>-5,55; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -3,47</t>
+          <t>-8,41; -3,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 28,77</t>
+          <t>14,02; 29,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -2,11</t>
+          <t>-5,36; -2,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -3,82</t>
+          <t>-6,95; -3,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,84; 20,3</t>
+          <t>10,81; 19,8</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,25; -20,89</t>
+          <t>-48,3; -21,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,4; -28,26</t>
+          <t>-53,86; -29,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,07; 94,76</t>
+          <t>40,41; 94,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,11; -1,82</t>
+          <t>-27,1; 0,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,26; -19,1</t>
+          <t>-40,52; -19,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,51; 156,84</t>
+          <t>69,64; 154,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -14,47</t>
+          <t>-32,57; -14,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,92; -26,23</t>
+          <t>-42,6; -26,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,25; 133,44</t>
+          <t>65,23; 129,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; -2,2</t>
+          <t>-8,86; -1,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 0,19</t>
+          <t>-6,88; 0,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,65</t>
+          <t>1,73; 10,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 2,12</t>
+          <t>-7,51; 2,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,53; -2,6</t>
+          <t>-11,25; -2,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,99; 20,84</t>
+          <t>10,95; 20,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -0,94</t>
+          <t>-7,24; -1,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; -2,02</t>
+          <t>-7,75; -2,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 14,3</t>
+          <t>7,86; 14,1</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,13; -17,99</t>
+          <t>-71,22; -20,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,57; 4,57</t>
+          <t>-54,42; 8,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,64; 112,5</t>
+          <t>13,72; 114,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 14,41</t>
+          <t>-37,99; 13,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,51; -16,91</t>
+          <t>-56,6; -15,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,51; 139,47</t>
+          <t>51,64; 134,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,35; -7,46</t>
+          <t>-46,0; -7,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,8; -15,59</t>
+          <t>-49,45; -16,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,46; 116,24</t>
+          <t>47,21; 113,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -5,11</t>
+          <t>-8,37; -4,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,43; -6,06</t>
+          <t>-9,46; -6,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,27</t>
+          <t>2,97; 7,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -1,26</t>
+          <t>-5,42; -1,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,17; -6,2</t>
+          <t>-10,14; -6,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,6; 23,15</t>
+          <t>14,76; 23,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; -3,65</t>
+          <t>-6,21; -3,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,34; -6,9</t>
+          <t>-9,33; -6,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,95; 15,61</t>
+          <t>9,96; 16,03</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,57; -32,43</t>
+          <t>-48,41; -31,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,25; -39,13</t>
+          <t>-54,15; -39,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,54; 46,25</t>
+          <t>16,89; 46,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,9; -5,53</t>
+          <t>-22,35; -6,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,68; -27,92</t>
+          <t>-41,86; -28,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>60,18; 102,75</t>
+          <t>60,48; 101,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,16; -19,02</t>
+          <t>-29,95; -18,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,22; -35,57</t>
+          <t>-45,15; -35,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>47,92; 77,84</t>
+          <t>48,13; 78,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DC-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,83; -6,72</t>
+          <t>-14,13; -6,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,22; -8,35</t>
+          <t>-16,12; -8,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 13,38</t>
+          <t>4,1; 13,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 0,05</t>
+          <t>-7,0; 0,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,0; -5,53</t>
+          <t>-12,89; -5,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,3; 28,24</t>
+          <t>20,71; 28,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,99; -3,83</t>
+          <t>-8,97; -3,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,36; -7,85</t>
+          <t>-13,48; -8,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 21,45</t>
+          <t>15,37; 21,55</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,8; -26,75</t>
+          <t>-49,52; -27,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,24; -33,99</t>
+          <t>-56,35; -34,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,92; 54,59</t>
+          <t>14,14; 52,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 0,22</t>
+          <t>-22,28; 0,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,35; -19,15</t>
+          <t>-40,42; -17,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,91; 99,57</t>
+          <t>62,41; 99,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,74; -13,95</t>
+          <t>-29,83; -14,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,35; -28,21</t>
+          <t>-44,45; -29,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,3; 77,09</t>
+          <t>51,11; 77,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,54; -2,44</t>
+          <t>-6,4; -2,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; -3,27</t>
+          <t>-7,05; -3,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 10,34</t>
+          <t>4,78; 10,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,0</t>
+          <t>-5,81; -0,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -3,42</t>
+          <t>-8,39; -3,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,02; 29,06</t>
+          <t>14,04; 30,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -2,05</t>
+          <t>-5,36; -2,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -3,86</t>
+          <t>-6,95; -3,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 19,8</t>
+          <t>10,61; 19,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,3; -21,49</t>
+          <t>-47,97; -20,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,86; -29,42</t>
+          <t>-53,42; -29,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,41; 94,7</t>
+          <t>37,38; 94,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 0,12</t>
+          <t>-27,64; -2,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,52; -19,48</t>
+          <t>-41,01; -20,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,64; 154,11</t>
+          <t>68,94; 162,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,57; -14,5</t>
+          <t>-32,53; -15,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,6; -26,34</t>
+          <t>-42,8; -26,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>65,23; 129,07</t>
+          <t>64,9; 128,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,86; -1,97</t>
+          <t>-9,69; -2,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 0,48</t>
+          <t>-6,6; 0,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 10,03</t>
+          <t>1,3; 9,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 2,13</t>
+          <t>-7,94; 2,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -2,22</t>
+          <t>-11,22; -2,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,95; 20,34</t>
+          <t>10,59; 20,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -1,04</t>
+          <t>-7,24; -1,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -2,11</t>
+          <t>-7,25; -1,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,86; 14,1</t>
+          <t>8,17; 14,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,22; -20,76</t>
+          <t>-71,9; -25,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,42; 8,82</t>
+          <t>-53,14; 5,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,72; 114,08</t>
+          <t>9,11; 107,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 13,97</t>
+          <t>-38,3; 17,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,6; -15,35</t>
+          <t>-55,63; -17,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,64; 134,78</t>
+          <t>50,86; 139,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,0; -7,64</t>
+          <t>-46,79; -10,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,45; -16,04</t>
+          <t>-48,16; -15,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>47,21; 113,68</t>
+          <t>52,33; 117,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,37; -4,87</t>
+          <t>-8,36; -5,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -6,22</t>
+          <t>-9,33; -6,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,22</t>
+          <t>3,19; 7,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; -1,44</t>
+          <t>-5,41; -1,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -6,28</t>
+          <t>-10,31; -6,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,76; 23,32</t>
+          <t>14,5; 23,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,21; -3,61</t>
+          <t>-6,2; -3,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -6,72</t>
+          <t>-9,23; -6,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,96; 16,03</t>
+          <t>9,82; 15,39</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,41; -31,61</t>
+          <t>-47,75; -32,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,15; -39,39</t>
+          <t>-53,64; -39,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,89; 46,14</t>
+          <t>18,57; 46,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,35; -6,36</t>
+          <t>-21,74; -5,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,86; -28,13</t>
+          <t>-42,2; -28,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>60,48; 101,25</t>
+          <t>59,45; 101,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,95; -18,8</t>
+          <t>-29,99; -19,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,15; -35,0</t>
+          <t>-44,99; -34,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>48,13; 78,79</t>
+          <t>47,16; 75,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DC-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,41</t>
+          <t>-10,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,5</t>
+          <t>-12,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,39</t>
+          <t>-8,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,6</t>
+          <t>20,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,7</t>
+          <t>-9,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,4</t>
+          <t>15,09</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,13; -6,83</t>
+          <t>-13,95; -6,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -8,96</t>
+          <t>-15,83; -8,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 13,44</t>
+          <t>2,18; 11,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 0,06</t>
+          <t>-7,09; 0,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,89; -5,21</t>
+          <t>-11,93; -3,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,71; 28,36</t>
+          <t>16,3; 24,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -3,85</t>
+          <t>-8,91; -3,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,48; -8,05</t>
+          <t>-12,85; -7,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,37; 21,55</t>
+          <t>12,09; 18,13</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-39,0%</t>
+          <t>-36,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-46,82%</t>
+          <t>-43,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,84%</t>
+          <t>-9,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-30,6%</t>
+          <t>-23,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>59,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-22,18%</t>
+          <t>-19,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-36,98%</t>
+          <t>-31,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>47,84%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,52; -27,39</t>
+          <t>-47,64; -25,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,35; -34,56</t>
+          <t>-53,36; -31,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,14; 52,71</t>
+          <t>7,47; 44,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 0,02</t>
+          <t>-19,85; 1,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,42; -17,77</t>
+          <t>-33,34; -11,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,41; 99,17</t>
+          <t>44,64; 74,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,83; -14,0</t>
+          <t>-27,13; -11,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,45; -29,1</t>
+          <t>-39,17; -23,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,11; 77,5</t>
+          <t>36,73; 60,22</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,36</t>
+          <t>17,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,4</t>
+          <t>11,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; -2,25</t>
+          <t>-6,87; -2,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; -3,25</t>
+          <t>-7,18; -3,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,36</t>
+          <t>-0,99; 8,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; -0,49</t>
+          <t>-7,27; -1,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; -3,76</t>
+          <t>-10,61; -5,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 30,16</t>
+          <t>9,7; 35,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -2,28</t>
+          <t>-6,56; -3,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -3,89</t>
+          <t>-8,25; -4,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 19,86</t>
+          <t>6,17; 22,38</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-36,18%</t>
+          <t>-37,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-42,48%</t>
+          <t>-40,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>65,3%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-15,01%</t>
+          <t>-18,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-30,47%</t>
+          <t>-33,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,15%</t>
+          <t>-26,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,08%</t>
+          <t>-35,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>86,55%</t>
+          <t>62,59%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,97; -20,52</t>
+          <t>-48,84; -22,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,42; -29,36</t>
+          <t>-51,16; -27,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,38; 94,52</t>
+          <t>-3,4; 67,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,64; -2,43</t>
+          <t>-28,82; -6,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,01; -20,94</t>
+          <t>-41,72; -25,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,94; 162,44</t>
+          <t>39,81; 149,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,53; -15,02</t>
+          <t>-34,07; -18,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,8; -26,8</t>
+          <t>-42,79; -28,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,9; 128,44</t>
+          <t>32,29; 124,09</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,78</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>7,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -2,6</t>
+          <t>-11,26; -3,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 0,39</t>
+          <t>-8,06; -0,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 9,57</t>
+          <t>-0,58; 7,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 2,38</t>
+          <t>-8,91; 2,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -2,6</t>
+          <t>-13,74; -4,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 20,58</t>
+          <t>6,17; 16,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -1,32</t>
+          <t>-8,51; -2,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -1,76</t>
+          <t>-9,19; -3,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 14,56</t>
+          <t>4,64; 11,35</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-51,99%</t>
+          <t>-58,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-28,8%</t>
+          <t>-34,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>54,19%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,45%</t>
+          <t>-15,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-39,72%</t>
+          <t>-41,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,49%</t>
+          <t>49,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-29,44%</t>
+          <t>-30,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,4%</t>
+          <t>-37,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>81,12%</t>
+          <t>46,46%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,9; -25,92</t>
+          <t>-75,24; -36,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,14; 5,31</t>
+          <t>-56,08; -4,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,11; 107,59</t>
+          <t>-5,35; 74,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 17,14</t>
+          <t>-35,35; 11,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,63; -17,92</t>
+          <t>-55,64; -22,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,86; 139,7</t>
+          <t>24,73; 84,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,79; -10,36</t>
+          <t>-45,64; -12,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,16; -15,03</t>
+          <t>-49,18; -20,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,33; 117,16</t>
+          <t>24,06; 72,85</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,77</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,22</t>
+          <t>15,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>-8,7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,73</t>
+          <t>9,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,36; -5,01</t>
+          <t>-8,9; -5,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -6,31</t>
+          <t>-9,75; -6,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,27</t>
+          <t>-1,95; 5,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -1,24</t>
+          <t>-6,12; -1,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -6,32</t>
+          <t>-11,55; -7,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,5; 23,38</t>
+          <t>10,39; 26,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; -3,69</t>
+          <t>-6,87; -4,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -6,68</t>
+          <t>-10,06; -7,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,82; 15,39</t>
+          <t>5,54; 16,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-40,49%</t>
+          <t>-40,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-47,27%</t>
+          <t>-45,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-14,05%</t>
+          <t>-14,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-35,35%</t>
+          <t>-33,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>54,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-24,66%</t>
+          <t>-24,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,07%</t>
+          <t>-38,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>40,01%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,75; -32,28</t>
+          <t>-48,35; -32,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,64; -39,88</t>
+          <t>-51,98; -38,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,57; 46,4</t>
+          <t>-10,65; 29,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,74; -5,4</t>
+          <t>-21,1; -7,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,2; -28,46</t>
+          <t>-39,72; -27,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>59,45; 101,01</t>
+          <t>36,78; 94,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,99; -19,1</t>
+          <t>-29,24; -19,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,99; -34,78</t>
+          <t>-42,8; -33,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>47,16; 75,63</t>
+          <t>24,02; 70,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DC-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -6,46</t>
+          <t>-13,9; -6,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,83; -8,18</t>
+          <t>-16,09; -8,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 11,69</t>
+          <t>1,56; 11,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,49</t>
+          <t>-7,09; 0,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,93; -3,9</t>
+          <t>-12,33; -4,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 24,23</t>
+          <t>16,59; 24,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -3,64</t>
+          <t>-8,82; -3,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,85; -7,02</t>
+          <t>-12,72; -7,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 18,13</t>
+          <t>11,82; 17,96</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,64; -25,26</t>
+          <t>-47,53; -23,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,36; -31,15</t>
+          <t>-54,13; -31,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 44,31</t>
+          <t>5,61; 42,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 1,53</t>
+          <t>-19,53; 0,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,34; -11,79</t>
+          <t>-33,86; -13,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,64; 74,94</t>
+          <t>45,47; 74,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,13; -11,99</t>
+          <t>-26,85; -11,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,17; -23,31</t>
+          <t>-38,58; -22,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,73; 60,22</t>
+          <t>36,01; 59,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -2,67</t>
+          <t>-6,92; -2,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,18; -3,17</t>
+          <t>-7,17; -3,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 8,23</t>
+          <t>-0,24; 8,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -1,53</t>
+          <t>-7,53; -1,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -5,77</t>
+          <t>-11,27; -5,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,7; 35,31</t>
+          <t>9,59; 32,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; -3,24</t>
+          <t>-6,47; -2,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,25; -4,96</t>
+          <t>-8,35; -4,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 22,38</t>
+          <t>6,45; 22,54</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,84; -22,92</t>
+          <t>-49,1; -23,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-51,16; -27,09</t>
+          <t>-51,23; -26,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 67,41</t>
+          <t>-1,26; 67,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,82; -6,96</t>
+          <t>-29,33; -7,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,72; -25,68</t>
+          <t>-43,13; -24,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,81; 149,39</t>
+          <t>38,74; 139,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,07; -18,29</t>
+          <t>-33,69; -16,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,79; -28,38</t>
+          <t>-43,68; -28,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,29; 124,09</t>
+          <t>33,98; 122,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -3,93</t>
+          <t>-10,89; -3,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -0,44</t>
+          <t>-8,14; -0,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 7,81</t>
+          <t>0,08; 8,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 2,2</t>
+          <t>-9,41; 1,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -4,41</t>
+          <t>-14,48; -4,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,17; 16,3</t>
+          <t>6,04; 15,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,51; -2,02</t>
+          <t>-8,38; -1,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,19; -3,2</t>
+          <t>-9,27; -2,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 11,35</t>
+          <t>4,56; 11,21</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,24; -36,09</t>
+          <t>-75,3; -35,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,08; -4,05</t>
+          <t>-56,04; -3,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 74,05</t>
+          <t>0,12; 75,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,35; 11,38</t>
+          <t>-37,23; 10,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,64; -22,48</t>
+          <t>-56,65; -22,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,73; 84,31</t>
+          <t>23,91; 83,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,64; -12,38</t>
+          <t>-45,42; -11,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,18; -20,54</t>
+          <t>-49,15; -19,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,06; 72,85</t>
+          <t>24,3; 74,91</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,9; -5,53</t>
+          <t>-8,82; -5,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -6,45</t>
+          <t>-9,6; -6,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 5,06</t>
+          <t>-2,14; 4,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; -1,99</t>
+          <t>-6,07; -2,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,55; -7,28</t>
+          <t>-11,49; -7,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,39; 26,71</t>
+          <t>10,55; 25,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -4,22</t>
+          <t>-6,9; -4,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -7,33</t>
+          <t>-9,98; -7,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,54; 16,14</t>
+          <t>5,51; 15,82</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,35; -32,75</t>
+          <t>-47,8; -32,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,98; -38,18</t>
+          <t>-52,03; -37,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 29,7</t>
+          <t>-9,9; 29,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -7,16</t>
+          <t>-20,75; -7,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,72; -27,19</t>
+          <t>-39,68; -27,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,78; 94,14</t>
+          <t>37,22; 91,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,24; -19,03</t>
+          <t>-29,5; -18,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,8; -33,34</t>
+          <t>-42,66; -33,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,02; 70,25</t>
+          <t>23,8; 69,03</t>
         </is>
       </c>
     </row>
